--- a/cht_app/forms/app/death_confirmation.xlsx
+++ b/cht_app/forms/app/death_confirmation.xlsx
@@ -268,7 +268,7 @@
     <t>died</t>
   </si>
   <si>
-    <t>Did the patient died?</t>
+    <t>Did the patient die?</t>
   </si>
   <si>
     <t>yes</t>
@@ -277,7 +277,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>When did the patient died?</t>
+    <t>When did the patient die?</t>
   </si>
   <si>
     <t>selected(../died, 'yes')</t>
@@ -44879,7 +44879,7 @@
       </c>
       <c r="C2" s="57">
         <f>NOW()</f>
-        <v>45124.05841</v>
+        <v>45125.22541</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>120</v>

--- a/cht_app/forms/app/death_confirmation.xlsx
+++ b/cht_app/forms/app/death_confirmation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="273">
   <si>
     <t>type</t>
   </si>
@@ -319,7 +319,7 @@
     <t>Specify other</t>
   </si>
   <si>
-    <t>selected(../place_of_death, 'other')</t>
+    <t>selected(../place_of_death, 'Other')</t>
   </si>
   <si>
     <t>death_information</t>
@@ -493,34 +493,16 @@
     <t>county</t>
   </si>
   <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>places_of_death</t>
   </si>
   <si>
-    <t>health_facility</t>
+    <t>Health Facility</t>
   </si>
   <si>
     <t>Health facility</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>Home</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>Other</t>
@@ -557,6 +539,18 @@
   </si>
   <si>
     <t>en</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>lmp_approximations</t>
@@ -665,6 +659,9 @@
   </si>
   <si>
     <t>Known diabetes</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
   <si>
     <t>hiv_statuses</t>
@@ -1070,7 +1067,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1138,6 +1135,9 @@
     <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1195,14 +1195,14 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -3770,7 +3770,7 @@
       <c r="J42" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="K42" s="24" t="s">
+      <c r="K42" s="27" t="s">
         <v>101</v>
       </c>
       <c r="L42" s="23"/>
@@ -3811,7 +3811,7 @@
       <c r="A43" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="28" t="s">
         <v>102</v>
       </c>
       <c r="C43" s="26" t="s">
@@ -3862,10 +3862,10 @@
       <c r="AR43" s="21"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="27" t="s">
+      <c r="A44" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="27"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="25"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
@@ -3956,52 +3956,52 @@
       <c r="AR45" s="21"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="29" t="s">
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="M46" s="30"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="29"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="30"/>
-      <c r="AA46" s="30"/>
-      <c r="AB46" s="30"/>
-      <c r="AC46" s="30"/>
-      <c r="AD46" s="30"/>
-      <c r="AE46" s="30"/>
-      <c r="AF46" s="29" t="s">
+      <c r="M46" s="31"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="31"/>
+      <c r="AB46" s="31"/>
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="31"/>
+      <c r="AE46" s="31"/>
+      <c r="AF46" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AG46" s="29"/>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29"/>
-      <c r="AJ46" s="29"/>
+      <c r="AG46" s="30"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="30"/>
       <c r="AK46" s="21"/>
       <c r="AL46" s="21"/>
       <c r="AM46" s="21"/>
@@ -4012,48 +4012,48 @@
       <c r="AR46" s="21"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="29"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="30"/>
-      <c r="AA47" s="30"/>
-      <c r="AB47" s="30"/>
-      <c r="AC47" s="30"/>
-      <c r="AD47" s="30"/>
-      <c r="AE47" s="30"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29"/>
-      <c r="AI47" s="29"/>
-      <c r="AJ47" s="29"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="31"/>
+      <c r="AA47" s="31"/>
+      <c r="AB47" s="31"/>
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="31"/>
+      <c r="AE47" s="31"/>
+      <c r="AF47" s="30"/>
+      <c r="AG47" s="30"/>
+      <c r="AH47" s="30"/>
+      <c r="AI47" s="30"/>
+      <c r="AJ47" s="30"/>
       <c r="AK47" s="21"/>
       <c r="AL47" s="21"/>
       <c r="AM47" s="21"/>
@@ -4064,50 +4064,50 @@
       <c r="AR47" s="21"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="29" t="s">
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="M48" s="30"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="29"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="30"/>
-      <c r="AD48" s="30"/>
-      <c r="AE48" s="30"/>
-      <c r="AF48" s="29"/>
-      <c r="AG48" s="29"/>
-      <c r="AH48" s="29"/>
-      <c r="AI48" s="29"/>
-      <c r="AJ48" s="29"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="31"/>
+      <c r="AA48" s="31"/>
+      <c r="AB48" s="31"/>
+      <c r="AC48" s="31"/>
+      <c r="AD48" s="31"/>
+      <c r="AE48" s="31"/>
+      <c r="AF48" s="30"/>
+      <c r="AG48" s="30"/>
+      <c r="AH48" s="30"/>
+      <c r="AI48" s="30"/>
+      <c r="AJ48" s="30"/>
       <c r="AK48" s="21"/>
       <c r="AL48" s="21"/>
       <c r="AM48" s="21"/>
@@ -4118,50 +4118,50 @@
       <c r="AR48" s="21"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="29" t="s">
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="V49" s="29"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="29"/>
-      <c r="Z49" s="30"/>
-      <c r="AA49" s="30"/>
-      <c r="AB49" s="30"/>
-      <c r="AC49" s="30"/>
-      <c r="AD49" s="30"/>
-      <c r="AE49" s="30"/>
-      <c r="AF49" s="29"/>
-      <c r="AG49" s="29"/>
-      <c r="AH49" s="29"/>
-      <c r="AI49" s="29"/>
-      <c r="AJ49" s="29"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="31"/>
+      <c r="AA49" s="31"/>
+      <c r="AB49" s="31"/>
+      <c r="AC49" s="31"/>
+      <c r="AD49" s="31"/>
+      <c r="AE49" s="31"/>
+      <c r="AF49" s="30"/>
+      <c r="AG49" s="30"/>
+      <c r="AH49" s="30"/>
+      <c r="AI49" s="30"/>
+      <c r="AJ49" s="30"/>
       <c r="AK49" s="21"/>
       <c r="AL49" s="21"/>
       <c r="AM49" s="21"/>
@@ -4172,48 +4172,48 @@
       <c r="AR49" s="21"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="30"/>
-      <c r="AA50" s="30"/>
-      <c r="AB50" s="30"/>
-      <c r="AC50" s="30"/>
-      <c r="AD50" s="30"/>
-      <c r="AE50" s="30"/>
-      <c r="AF50" s="29"/>
-      <c r="AG50" s="29"/>
-      <c r="AH50" s="29"/>
-      <c r="AI50" s="29"/>
-      <c r="AJ50" s="29"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="30"/>
+      <c r="W50" s="30"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="31"/>
+      <c r="AA50" s="31"/>
+      <c r="AB50" s="31"/>
+      <c r="AC50" s="31"/>
+      <c r="AD50" s="31"/>
+      <c r="AE50" s="31"/>
+      <c r="AF50" s="30"/>
+      <c r="AG50" s="30"/>
+      <c r="AH50" s="30"/>
+      <c r="AI50" s="30"/>
+      <c r="AJ50" s="30"/>
       <c r="AK50" s="21"/>
       <c r="AL50" s="21"/>
       <c r="AM50" s="21"/>
@@ -4224,48 +4224,48 @@
       <c r="AR50" s="21"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="30"/>
-      <c r="AA51" s="30"/>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="30"/>
-      <c r="AD51" s="30"/>
-      <c r="AE51" s="30"/>
-      <c r="AF51" s="29"/>
-      <c r="AG51" s="29"/>
-      <c r="AH51" s="29"/>
-      <c r="AI51" s="29"/>
-      <c r="AJ51" s="29"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="31"/>
+      <c r="AA51" s="31"/>
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="31"/>
+      <c r="AE51" s="31"/>
+      <c r="AF51" s="30"/>
+      <c r="AG51" s="30"/>
+      <c r="AH51" s="30"/>
+      <c r="AI51" s="30"/>
+      <c r="AJ51" s="30"/>
       <c r="AK51" s="21"/>
       <c r="AL51" s="21"/>
       <c r="AM51" s="21"/>
@@ -4276,50 +4276,50 @@
       <c r="AR51" s="21"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="29" t="s">
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="M52" s="30"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="29"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="30"/>
-      <c r="AA52" s="30"/>
-      <c r="AB52" s="30"/>
-      <c r="AC52" s="30"/>
-      <c r="AD52" s="30"/>
-      <c r="AE52" s="30"/>
-      <c r="AF52" s="29"/>
-      <c r="AG52" s="29"/>
-      <c r="AH52" s="29"/>
-      <c r="AI52" s="29"/>
-      <c r="AJ52" s="29"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="31"/>
+      <c r="AA52" s="31"/>
+      <c r="AB52" s="31"/>
+      <c r="AC52" s="31"/>
+      <c r="AD52" s="31"/>
+      <c r="AE52" s="31"/>
+      <c r="AF52" s="30"/>
+      <c r="AG52" s="30"/>
+      <c r="AH52" s="30"/>
+      <c r="AI52" s="30"/>
+      <c r="AJ52" s="30"/>
       <c r="AK52" s="21"/>
       <c r="AL52" s="21"/>
       <c r="AM52" s="21"/>
@@ -4330,48 +4330,48 @@
       <c r="AR52" s="21"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="29"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="30"/>
-      <c r="AA53" s="30"/>
-      <c r="AB53" s="30"/>
-      <c r="AC53" s="30"/>
-      <c r="AD53" s="30"/>
-      <c r="AE53" s="30"/>
-      <c r="AF53" s="29"/>
-      <c r="AG53" s="29"/>
-      <c r="AH53" s="29"/>
-      <c r="AI53" s="29"/>
-      <c r="AJ53" s="29"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="31"/>
+      <c r="AA53" s="31"/>
+      <c r="AB53" s="31"/>
+      <c r="AC53" s="31"/>
+      <c r="AD53" s="31"/>
+      <c r="AE53" s="31"/>
+      <c r="AF53" s="30"/>
+      <c r="AG53" s="30"/>
+      <c r="AH53" s="30"/>
+      <c r="AI53" s="30"/>
+      <c r="AJ53" s="30"/>
       <c r="AK53" s="21"/>
       <c r="AL53" s="21"/>
       <c r="AM53" s="21"/>
@@ -4382,50 +4382,50 @@
       <c r="AR53" s="21"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="29" t="s">
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="M54" s="30"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="29"/>
-      <c r="U54" s="29"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="29"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="29"/>
-      <c r="Z54" s="30"/>
-      <c r="AA54" s="30"/>
-      <c r="AB54" s="30"/>
-      <c r="AC54" s="30"/>
-      <c r="AD54" s="30"/>
-      <c r="AE54" s="30"/>
-      <c r="AF54" s="29"/>
-      <c r="AG54" s="29"/>
-      <c r="AH54" s="29"/>
-      <c r="AI54" s="29"/>
-      <c r="AJ54" s="29"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30"/>
+      <c r="V54" s="30"/>
+      <c r="W54" s="30"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="31"/>
+      <c r="AA54" s="31"/>
+      <c r="AB54" s="31"/>
+      <c r="AC54" s="31"/>
+      <c r="AD54" s="31"/>
+      <c r="AE54" s="31"/>
+      <c r="AF54" s="30"/>
+      <c r="AG54" s="30"/>
+      <c r="AH54" s="30"/>
+      <c r="AI54" s="30"/>
+      <c r="AJ54" s="30"/>
       <c r="AK54" s="21"/>
       <c r="AL54" s="21"/>
       <c r="AM54" s="21"/>
@@ -4436,48 +4436,48 @@
       <c r="AR54" s="21"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="29"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="29"/>
-      <c r="Z55" s="30"/>
-      <c r="AA55" s="30"/>
-      <c r="AB55" s="30"/>
-      <c r="AC55" s="30"/>
-      <c r="AD55" s="30"/>
-      <c r="AE55" s="30"/>
-      <c r="AF55" s="29"/>
-      <c r="AG55" s="29"/>
-      <c r="AH55" s="29"/>
-      <c r="AI55" s="29"/>
-      <c r="AJ55" s="29"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="30"/>
+      <c r="V55" s="30"/>
+      <c r="W55" s="30"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="31"/>
+      <c r="AA55" s="31"/>
+      <c r="AB55" s="31"/>
+      <c r="AC55" s="31"/>
+      <c r="AD55" s="31"/>
+      <c r="AE55" s="31"/>
+      <c r="AF55" s="30"/>
+      <c r="AG55" s="30"/>
+      <c r="AH55" s="30"/>
+      <c r="AI55" s="30"/>
+      <c r="AJ55" s="30"/>
       <c r="AK55" s="21"/>
       <c r="AL55" s="21"/>
       <c r="AM55" s="21"/>
@@ -4488,44 +4488,44 @@
       <c r="AR55" s="21"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="29"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="29"/>
-      <c r="Z56" s="30"/>
-      <c r="AA56" s="30"/>
-      <c r="AB56" s="30"/>
-      <c r="AC56" s="30"/>
-      <c r="AD56" s="30"/>
-      <c r="AE56" s="30"/>
-      <c r="AF56" s="29"/>
-      <c r="AG56" s="29"/>
-      <c r="AH56" s="29"/>
-      <c r="AI56" s="29"/>
-      <c r="AJ56" s="29"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="31"/>
+      <c r="AA56" s="31"/>
+      <c r="AB56" s="31"/>
+      <c r="AC56" s="31"/>
+      <c r="AD56" s="31"/>
+      <c r="AE56" s="31"/>
+      <c r="AF56" s="30"/>
+      <c r="AG56" s="30"/>
+      <c r="AH56" s="30"/>
+      <c r="AI56" s="30"/>
+      <c r="AJ56" s="30"/>
       <c r="AK56" s="21"/>
       <c r="AL56" s="21"/>
       <c r="AM56" s="21"/>
@@ -4582,52 +4582,52 @@
       <c r="AR57" s="21"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="38" t="s">
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="M58" s="37"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
-      <c r="Q58" s="38"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
-      <c r="T58" s="38"/>
-      <c r="U58" s="38"/>
-      <c r="V58" s="38"/>
-      <c r="W58" s="38"/>
-      <c r="X58" s="38"/>
-      <c r="Y58" s="38"/>
-      <c r="Z58" s="37"/>
-      <c r="AA58" s="37"/>
-      <c r="AB58" s="37"/>
-      <c r="AC58" s="37"/>
-      <c r="AD58" s="37"/>
-      <c r="AE58" s="37"/>
-      <c r="AF58" s="38" t="s">
+      <c r="M58" s="38"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="39"/>
+      <c r="V58" s="39"/>
+      <c r="W58" s="39"/>
+      <c r="X58" s="39"/>
+      <c r="Y58" s="39"/>
+      <c r="Z58" s="38"/>
+      <c r="AA58" s="38"/>
+      <c r="AB58" s="38"/>
+      <c r="AC58" s="38"/>
+      <c r="AD58" s="38"/>
+      <c r="AE58" s="38"/>
+      <c r="AF58" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AG58" s="38"/>
-      <c r="AH58" s="38"/>
-      <c r="AI58" s="38"/>
-      <c r="AJ58" s="38"/>
+      <c r="AG58" s="39"/>
+      <c r="AH58" s="39"/>
+      <c r="AI58" s="39"/>
+      <c r="AJ58" s="39"/>
       <c r="AK58" s="21"/>
       <c r="AL58" s="21"/>
       <c r="AM58" s="21"/>
@@ -4638,52 +4638,52 @@
       <c r="AR58" s="21"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
-      <c r="Q59" s="38"/>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38" t="s">
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="V59" s="38"/>
-      <c r="W59" s="38"/>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
-      <c r="Z59" s="37"/>
-      <c r="AA59" s="37"/>
-      <c r="AB59" s="37"/>
-      <c r="AC59" s="37"/>
-      <c r="AD59" s="37"/>
-      <c r="AE59" s="37"/>
-      <c r="AF59" s="38"/>
-      <c r="AG59" s="38" t="s">
+      <c r="V59" s="39"/>
+      <c r="W59" s="39"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="39"/>
+      <c r="Z59" s="38"/>
+      <c r="AA59" s="38"/>
+      <c r="AB59" s="38"/>
+      <c r="AC59" s="38"/>
+      <c r="AD59" s="38"/>
+      <c r="AE59" s="38"/>
+      <c r="AF59" s="39"/>
+      <c r="AG59" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="AH59" s="38"/>
-      <c r="AI59" s="38"/>
-      <c r="AJ59" s="38"/>
+      <c r="AH59" s="39"/>
+      <c r="AI59" s="39"/>
+      <c r="AJ59" s="39"/>
       <c r="AK59" s="21"/>
       <c r="AL59" s="21"/>
       <c r="AM59" s="21"/>
@@ -4694,52 +4694,52 @@
       <c r="AR59" s="21"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="38"/>
-      <c r="Q60" s="38"/>
-      <c r="R60" s="38"/>
-      <c r="S60" s="38"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="38" t="s">
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="39"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="V60" s="38"/>
-      <c r="W60" s="38"/>
-      <c r="X60" s="38"/>
-      <c r="Y60" s="38"/>
-      <c r="Z60" s="37"/>
-      <c r="AA60" s="37"/>
-      <c r="AB60" s="37"/>
-      <c r="AC60" s="37"/>
-      <c r="AD60" s="37"/>
-      <c r="AE60" s="37"/>
-      <c r="AF60" s="38"/>
-      <c r="AG60" s="40" t="s">
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="39"/>
+      <c r="Z60" s="38"/>
+      <c r="AA60" s="38"/>
+      <c r="AB60" s="38"/>
+      <c r="AC60" s="38"/>
+      <c r="AD60" s="38"/>
+      <c r="AE60" s="38"/>
+      <c r="AF60" s="39"/>
+      <c r="AG60" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="AH60" s="38"/>
-      <c r="AI60" s="38"/>
-      <c r="AJ60" s="38"/>
+      <c r="AH60" s="39"/>
+      <c r="AI60" s="39"/>
+      <c r="AJ60" s="39"/>
       <c r="AK60" s="21"/>
       <c r="AL60" s="21"/>
       <c r="AM60" s="21"/>
@@ -4750,52 +4750,52 @@
       <c r="AR60" s="21"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="38" t="s">
+      <c r="C61" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
-      <c r="Q61" s="38"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38" t="s">
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="39"/>
+      <c r="R61" s="39"/>
+      <c r="S61" s="39"/>
+      <c r="T61" s="39"/>
+      <c r="U61" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="V61" s="38"/>
-      <c r="W61" s="38"/>
-      <c r="X61" s="38"/>
-      <c r="Y61" s="38"/>
-      <c r="Z61" s="37"/>
-      <c r="AA61" s="37"/>
-      <c r="AB61" s="37"/>
-      <c r="AC61" s="37"/>
-      <c r="AD61" s="37"/>
-      <c r="AE61" s="37"/>
-      <c r="AF61" s="38"/>
-      <c r="AG61" s="40" t="s">
+      <c r="V61" s="39"/>
+      <c r="W61" s="39"/>
+      <c r="X61" s="39"/>
+      <c r="Y61" s="39"/>
+      <c r="Z61" s="38"/>
+      <c r="AA61" s="38"/>
+      <c r="AB61" s="38"/>
+      <c r="AC61" s="38"/>
+      <c r="AD61" s="38"/>
+      <c r="AE61" s="38"/>
+      <c r="AF61" s="39"/>
+      <c r="AG61" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="AH61" s="38"/>
-      <c r="AI61" s="38"/>
-      <c r="AJ61" s="38"/>
+      <c r="AH61" s="39"/>
+      <c r="AI61" s="39"/>
+      <c r="AJ61" s="39"/>
       <c r="AK61" s="21"/>
       <c r="AL61" s="21"/>
       <c r="AM61" s="21"/>
@@ -4806,52 +4806,52 @@
       <c r="AR61" s="21"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
-      <c r="Q62" s="38"/>
-      <c r="R62" s="38"/>
-      <c r="S62" s="38"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38" t="s">
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="39"/>
+      <c r="P62" s="39"/>
+      <c r="Q62" s="39"/>
+      <c r="R62" s="39"/>
+      <c r="S62" s="39"/>
+      <c r="T62" s="39"/>
+      <c r="U62" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="V62" s="38"/>
-      <c r="W62" s="38"/>
-      <c r="X62" s="38"/>
-      <c r="Y62" s="38"/>
-      <c r="Z62" s="37"/>
-      <c r="AA62" s="37"/>
-      <c r="AB62" s="37"/>
-      <c r="AC62" s="37"/>
-      <c r="AD62" s="37"/>
-      <c r="AE62" s="37"/>
-      <c r="AF62" s="38"/>
-      <c r="AG62" s="40" t="s">
+      <c r="V62" s="39"/>
+      <c r="W62" s="39"/>
+      <c r="X62" s="39"/>
+      <c r="Y62" s="39"/>
+      <c r="Z62" s="38"/>
+      <c r="AA62" s="38"/>
+      <c r="AB62" s="38"/>
+      <c r="AC62" s="38"/>
+      <c r="AD62" s="38"/>
+      <c r="AE62" s="38"/>
+      <c r="AF62" s="39"/>
+      <c r="AG62" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="AH62" s="38"/>
-      <c r="AI62" s="38"/>
-      <c r="AJ62" s="38"/>
+      <c r="AH62" s="39"/>
+      <c r="AI62" s="39"/>
+      <c r="AJ62" s="39"/>
       <c r="AK62" s="21"/>
       <c r="AL62" s="21"/>
       <c r="AM62" s="21"/>
@@ -4862,482 +4862,482 @@
       <c r="AR62" s="21"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="38" t="s">
+      <c r="C63" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="38"/>
-      <c r="X63" s="38"/>
-      <c r="Y63" s="38"/>
-      <c r="Z63" s="38"/>
-      <c r="AA63" s="38"/>
-      <c r="AB63" s="38"/>
-      <c r="AC63" s="38"/>
-      <c r="AD63" s="38"/>
-      <c r="AE63" s="38"/>
-      <c r="AF63" s="38"/>
-      <c r="AG63" s="38"/>
-      <c r="AH63" s="38"/>
-      <c r="AI63" s="38"/>
-      <c r="AJ63" s="38"/>
-      <c r="AK63" s="42"/>
-      <c r="AL63" s="42"/>
-      <c r="AM63" s="42"/>
-      <c r="AN63" s="42"/>
-      <c r="AO63" s="42"/>
-      <c r="AP63" s="42"/>
-      <c r="AQ63" s="42"/>
-      <c r="AR63" s="42"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="39"/>
+      <c r="Q63" s="39"/>
+      <c r="R63" s="39"/>
+      <c r="S63" s="39"/>
+      <c r="T63" s="39"/>
+      <c r="U63" s="39"/>
+      <c r="V63" s="39"/>
+      <c r="W63" s="39"/>
+      <c r="X63" s="39"/>
+      <c r="Y63" s="39"/>
+      <c r="Z63" s="39"/>
+      <c r="AA63" s="39"/>
+      <c r="AB63" s="39"/>
+      <c r="AC63" s="39"/>
+      <c r="AD63" s="39"/>
+      <c r="AE63" s="39"/>
+      <c r="AF63" s="39"/>
+      <c r="AG63" s="39"/>
+      <c r="AH63" s="39"/>
+      <c r="AI63" s="39"/>
+      <c r="AJ63" s="39"/>
+      <c r="AK63" s="43"/>
+      <c r="AL63" s="43"/>
+      <c r="AM63" s="43"/>
+      <c r="AN63" s="43"/>
+      <c r="AO63" s="43"/>
+      <c r="AP63" s="43"/>
+      <c r="AQ63" s="43"/>
+      <c r="AR63" s="43"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="39" t="s">
+      <c r="A64" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="38" t="s">
+      <c r="C64" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="38" t="s">
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="V64" s="38"/>
-      <c r="W64" s="38"/>
-      <c r="X64" s="38"/>
-      <c r="Y64" s="38"/>
-      <c r="Z64" s="38"/>
-      <c r="AA64" s="38"/>
-      <c r="AB64" s="38"/>
-      <c r="AC64" s="38"/>
-      <c r="AD64" s="38"/>
-      <c r="AE64" s="38"/>
-      <c r="AF64" s="38"/>
-      <c r="AG64" s="38" t="s">
+      <c r="V64" s="39"/>
+      <c r="W64" s="39"/>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
+      <c r="Z64" s="39"/>
+      <c r="AA64" s="39"/>
+      <c r="AB64" s="39"/>
+      <c r="AC64" s="39"/>
+      <c r="AD64" s="39"/>
+      <c r="AE64" s="39"/>
+      <c r="AF64" s="39"/>
+      <c r="AG64" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="AH64" s="38"/>
-      <c r="AI64" s="38"/>
-      <c r="AJ64" s="38"/>
-      <c r="AK64" s="42"/>
-      <c r="AL64" s="42"/>
-      <c r="AM64" s="42"/>
-      <c r="AN64" s="42"/>
-      <c r="AO64" s="42"/>
-      <c r="AP64" s="42"/>
-      <c r="AQ64" s="42"/>
-      <c r="AR64" s="42"/>
+      <c r="AH64" s="39"/>
+      <c r="AI64" s="39"/>
+      <c r="AJ64" s="39"/>
+      <c r="AK64" s="43"/>
+      <c r="AL64" s="43"/>
+      <c r="AM64" s="43"/>
+      <c r="AN64" s="43"/>
+      <c r="AO64" s="43"/>
+      <c r="AP64" s="43"/>
+      <c r="AQ64" s="43"/>
+      <c r="AR64" s="43"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38" t="s">
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
-      <c r="AA65" s="38"/>
-      <c r="AB65" s="38"/>
-      <c r="AC65" s="38"/>
-      <c r="AD65" s="38"/>
-      <c r="AE65" s="38"/>
-      <c r="AF65" s="38"/>
-      <c r="AG65" s="38" t="s">
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="39"/>
+      <c r="Y65" s="39"/>
+      <c r="Z65" s="39"/>
+      <c r="AA65" s="39"/>
+      <c r="AB65" s="39"/>
+      <c r="AC65" s="39"/>
+      <c r="AD65" s="39"/>
+      <c r="AE65" s="39"/>
+      <c r="AF65" s="39"/>
+      <c r="AG65" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="AH65" s="38"/>
-      <c r="AI65" s="38"/>
-      <c r="AJ65" s="38"/>
-      <c r="AK65" s="42"/>
-      <c r="AL65" s="42"/>
-      <c r="AM65" s="42"/>
-      <c r="AN65" s="42"/>
-      <c r="AO65" s="42"/>
-      <c r="AP65" s="42"/>
-      <c r="AQ65" s="42"/>
-      <c r="AR65" s="42"/>
+      <c r="AH65" s="39"/>
+      <c r="AI65" s="39"/>
+      <c r="AJ65" s="39"/>
+      <c r="AK65" s="43"/>
+      <c r="AL65" s="43"/>
+      <c r="AM65" s="43"/>
+      <c r="AN65" s="43"/>
+      <c r="AO65" s="43"/>
+      <c r="AP65" s="43"/>
+      <c r="AQ65" s="43"/>
+      <c r="AR65" s="43"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="38" t="s">
+      <c r="C66" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="38"/>
-      <c r="U66" s="38" t="s">
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="39"/>
+      <c r="U66" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="V66" s="38"/>
-      <c r="W66" s="38"/>
-      <c r="X66" s="38"/>
-      <c r="Y66" s="38"/>
-      <c r="Z66" s="38"/>
-      <c r="AA66" s="38"/>
-      <c r="AB66" s="38"/>
-      <c r="AC66" s="38"/>
-      <c r="AD66" s="38"/>
-      <c r="AE66" s="38"/>
-      <c r="AF66" s="38"/>
-      <c r="AG66" s="38" t="s">
+      <c r="V66" s="39"/>
+      <c r="W66" s="39"/>
+      <c r="X66" s="39"/>
+      <c r="Y66" s="39"/>
+      <c r="Z66" s="39"/>
+      <c r="AA66" s="39"/>
+      <c r="AB66" s="39"/>
+      <c r="AC66" s="39"/>
+      <c r="AD66" s="39"/>
+      <c r="AE66" s="39"/>
+      <c r="AF66" s="39"/>
+      <c r="AG66" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="AH66" s="38"/>
-      <c r="AI66" s="38"/>
-      <c r="AJ66" s="38"/>
-      <c r="AK66" s="42"/>
-      <c r="AL66" s="42"/>
-      <c r="AM66" s="42"/>
-      <c r="AN66" s="42"/>
-      <c r="AO66" s="42"/>
-      <c r="AP66" s="42"/>
-      <c r="AQ66" s="42"/>
-      <c r="AR66" s="42"/>
+      <c r="AH66" s="39"/>
+      <c r="AI66" s="39"/>
+      <c r="AJ66" s="39"/>
+      <c r="AK66" s="43"/>
+      <c r="AL66" s="43"/>
+      <c r="AM66" s="43"/>
+      <c r="AN66" s="43"/>
+      <c r="AO66" s="43"/>
+      <c r="AP66" s="43"/>
+      <c r="AQ66" s="43"/>
+      <c r="AR66" s="43"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="38"/>
-      <c r="U67" s="38" t="s">
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="39"/>
+      <c r="P67" s="39"/>
+      <c r="Q67" s="39"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="39"/>
+      <c r="T67" s="39"/>
+      <c r="U67" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="V67" s="38"/>
-      <c r="W67" s="38"/>
-      <c r="X67" s="38"/>
-      <c r="Y67" s="38"/>
-      <c r="Z67" s="38"/>
-      <c r="AA67" s="38"/>
-      <c r="AB67" s="38"/>
-      <c r="AC67" s="38"/>
-      <c r="AD67" s="38"/>
-      <c r="AE67" s="38"/>
-      <c r="AF67" s="38"/>
-      <c r="AG67" s="38" t="s">
+      <c r="V67" s="39"/>
+      <c r="W67" s="39"/>
+      <c r="X67" s="39"/>
+      <c r="Y67" s="39"/>
+      <c r="Z67" s="39"/>
+      <c r="AA67" s="39"/>
+      <c r="AB67" s="39"/>
+      <c r="AC67" s="39"/>
+      <c r="AD67" s="39"/>
+      <c r="AE67" s="39"/>
+      <c r="AF67" s="39"/>
+      <c r="AG67" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AH67" s="38"/>
-      <c r="AI67" s="38"/>
-      <c r="AJ67" s="38"/>
-      <c r="AK67" s="42"/>
-      <c r="AL67" s="42"/>
-      <c r="AM67" s="42"/>
-      <c r="AN67" s="42"/>
-      <c r="AO67" s="42"/>
-      <c r="AP67" s="42"/>
-      <c r="AQ67" s="42"/>
-      <c r="AR67" s="42"/>
+      <c r="AH67" s="39"/>
+      <c r="AI67" s="39"/>
+      <c r="AJ67" s="39"/>
+      <c r="AK67" s="43"/>
+      <c r="AL67" s="43"/>
+      <c r="AM67" s="43"/>
+      <c r="AN67" s="43"/>
+      <c r="AO67" s="43"/>
+      <c r="AP67" s="43"/>
+      <c r="AQ67" s="43"/>
+      <c r="AR67" s="43"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38" t="s">
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="V68" s="38"/>
-      <c r="W68" s="38"/>
-      <c r="X68" s="38"/>
-      <c r="Y68" s="38"/>
-      <c r="Z68" s="38"/>
-      <c r="AA68" s="38"/>
-      <c r="AB68" s="38"/>
-      <c r="AC68" s="38"/>
-      <c r="AD68" s="38"/>
-      <c r="AE68" s="38"/>
-      <c r="AF68" s="38"/>
-      <c r="AG68" s="38" t="s">
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="39"/>
+      <c r="Y68" s="39"/>
+      <c r="Z68" s="39"/>
+      <c r="AA68" s="39"/>
+      <c r="AB68" s="39"/>
+      <c r="AC68" s="39"/>
+      <c r="AD68" s="39"/>
+      <c r="AE68" s="39"/>
+      <c r="AF68" s="39"/>
+      <c r="AG68" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="AH68" s="38"/>
-      <c r="AI68" s="38"/>
-      <c r="AJ68" s="38"/>
-      <c r="AK68" s="42"/>
-      <c r="AL68" s="42"/>
-      <c r="AM68" s="42"/>
-      <c r="AN68" s="42"/>
-      <c r="AO68" s="42"/>
-      <c r="AP68" s="42"/>
-      <c r="AQ68" s="42"/>
-      <c r="AR68" s="42"/>
+      <c r="AH68" s="39"/>
+      <c r="AI68" s="39"/>
+      <c r="AJ68" s="39"/>
+      <c r="AK68" s="43"/>
+      <c r="AL68" s="43"/>
+      <c r="AM68" s="43"/>
+      <c r="AN68" s="43"/>
+      <c r="AO68" s="43"/>
+      <c r="AP68" s="43"/>
+      <c r="AQ68" s="43"/>
+      <c r="AR68" s="43"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="41" t="s">
+      <c r="A69" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="38"/>
-      <c r="W69" s="38"/>
-      <c r="X69" s="38"/>
-      <c r="Y69" s="38"/>
-      <c r="Z69" s="38"/>
-      <c r="AA69" s="38"/>
-      <c r="AB69" s="38"/>
-      <c r="AC69" s="38"/>
-      <c r="AD69" s="38"/>
-      <c r="AE69" s="38"/>
-      <c r="AF69" s="38"/>
-      <c r="AG69" s="38"/>
-      <c r="AH69" s="38"/>
-      <c r="AI69" s="38"/>
-      <c r="AJ69" s="38"/>
-      <c r="AK69" s="42"/>
-      <c r="AL69" s="42"/>
-      <c r="AM69" s="42"/>
-      <c r="AN69" s="42"/>
-      <c r="AO69" s="42"/>
-      <c r="AP69" s="42"/>
-      <c r="AQ69" s="42"/>
-      <c r="AR69" s="42"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="39"/>
+      <c r="Y69" s="39"/>
+      <c r="Z69" s="39"/>
+      <c r="AA69" s="39"/>
+      <c r="AB69" s="39"/>
+      <c r="AC69" s="39"/>
+      <c r="AD69" s="39"/>
+      <c r="AE69" s="39"/>
+      <c r="AF69" s="39"/>
+      <c r="AG69" s="39"/>
+      <c r="AH69" s="39"/>
+      <c r="AI69" s="39"/>
+      <c r="AJ69" s="39"/>
+      <c r="AK69" s="43"/>
+      <c r="AL69" s="43"/>
+      <c r="AM69" s="43"/>
+      <c r="AN69" s="43"/>
+      <c r="AO69" s="43"/>
+      <c r="AP69" s="43"/>
+      <c r="AQ69" s="43"/>
+      <c r="AR69" s="43"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="38"/>
-      <c r="S70" s="38"/>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="38"/>
-      <c r="X70" s="38"/>
-      <c r="Y70" s="38"/>
-      <c r="Z70" s="38"/>
-      <c r="AA70" s="38"/>
-      <c r="AB70" s="38"/>
-      <c r="AC70" s="38"/>
-      <c r="AD70" s="38"/>
-      <c r="AE70" s="38"/>
-      <c r="AF70" s="38"/>
-      <c r="AG70" s="38"/>
-      <c r="AH70" s="38"/>
-      <c r="AI70" s="38"/>
-      <c r="AJ70" s="38"/>
-      <c r="AK70" s="42"/>
-      <c r="AL70" s="42"/>
-      <c r="AM70" s="42"/>
-      <c r="AN70" s="42"/>
-      <c r="AO70" s="42"/>
-      <c r="AP70" s="42"/>
-      <c r="AQ70" s="42"/>
-      <c r="AR70" s="42"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
+      <c r="V70" s="39"/>
+      <c r="W70" s="39"/>
+      <c r="X70" s="39"/>
+      <c r="Y70" s="39"/>
+      <c r="Z70" s="39"/>
+      <c r="AA70" s="39"/>
+      <c r="AB70" s="39"/>
+      <c r="AC70" s="39"/>
+      <c r="AD70" s="39"/>
+      <c r="AE70" s="39"/>
+      <c r="AF70" s="39"/>
+      <c r="AG70" s="39"/>
+      <c r="AH70" s="39"/>
+      <c r="AI70" s="39"/>
+      <c r="AJ70" s="39"/>
+      <c r="AK70" s="43"/>
+      <c r="AL70" s="43"/>
+      <c r="AM70" s="43"/>
+      <c r="AN70" s="43"/>
+      <c r="AO70" s="43"/>
+      <c r="AP70" s="43"/>
+      <c r="AQ70" s="43"/>
+      <c r="AR70" s="43"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="44"/>
-      <c r="P71" s="44"/>
-      <c r="Q71" s="44"/>
-      <c r="R71" s="44"/>
-      <c r="S71" s="44"/>
-      <c r="T71" s="44"/>
-      <c r="U71" s="44"/>
-      <c r="V71" s="44"/>
-      <c r="W71" s="44"/>
-      <c r="X71" s="44"/>
-      <c r="Y71" s="44"/>
-      <c r="Z71" s="44"/>
-      <c r="AA71" s="44"/>
-      <c r="AB71" s="44"/>
-      <c r="AC71" s="44"/>
-      <c r="AD71" s="44"/>
-      <c r="AE71" s="44"/>
-      <c r="AF71" s="44"/>
-      <c r="AG71" s="44"/>
-      <c r="AH71" s="44"/>
-      <c r="AI71" s="44"/>
-      <c r="AJ71" s="44"/>
-      <c r="AK71" s="42"/>
-      <c r="AL71" s="42"/>
-      <c r="AM71" s="42"/>
-      <c r="AN71" s="42"/>
-      <c r="AO71" s="42"/>
-      <c r="AP71" s="42"/>
-      <c r="AQ71" s="42"/>
-      <c r="AR71" s="42"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="45"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="45"/>
+      <c r="N71" s="45"/>
+      <c r="O71" s="45"/>
+      <c r="P71" s="45"/>
+      <c r="Q71" s="45"/>
+      <c r="R71" s="45"/>
+      <c r="S71" s="45"/>
+      <c r="T71" s="45"/>
+      <c r="U71" s="45"/>
+      <c r="V71" s="45"/>
+      <c r="W71" s="45"/>
+      <c r="X71" s="45"/>
+      <c r="Y71" s="45"/>
+      <c r="Z71" s="45"/>
+      <c r="AA71" s="45"/>
+      <c r="AB71" s="45"/>
+      <c r="AC71" s="45"/>
+      <c r="AD71" s="45"/>
+      <c r="AE71" s="45"/>
+      <c r="AF71" s="45"/>
+      <c r="AG71" s="45"/>
+      <c r="AH71" s="45"/>
+      <c r="AI71" s="45"/>
+      <c r="AJ71" s="45"/>
+      <c r="AK71" s="43"/>
+      <c r="AL71" s="43"/>
+      <c r="AM71" s="43"/>
+      <c r="AN71" s="43"/>
+      <c r="AO71" s="43"/>
+      <c r="AP71" s="43"/>
+      <c r="AQ71" s="43"/>
+      <c r="AR71" s="43"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="7"/>
@@ -36605,16 +36605,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="46" t="s">
         <v>156</v>
       </c>
       <c r="E1" s="20"/>
@@ -36634,17 +36634,17 @@
       <c r="S1" s="20"/>
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
-      <c r="V1" s="47"/>
+      <c r="V1" s="48"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>92</v>
+      <c r="B2" s="50" t="s">
+        <v>158</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>158</v>
+      <c r="C2" s="50" t="s">
+        <v>159</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -36664,16 +36664,16 @@
       <c r="S2" s="20"/>
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
-      <c r="V2" s="48"/>
+      <c r="V2" s="51"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>159</v>
+      <c r="B3" s="50" t="s">
+        <v>160</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="50" t="s">
         <v>160</v>
       </c>
       <c r="D3" s="20"/>
@@ -36694,12 +36694,18 @@
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
-      <c r="V3" s="48"/>
+      <c r="V3" s="51"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>161</v>
+      </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -36718,102 +36724,81 @@
       <c r="S4" s="20"/>
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
-      <c r="V4" s="48"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="48"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="48"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="48"/>
+      <c r="V4" s="51"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -36834,9 +36819,9 @@
       <c r="U8" s="19"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -36857,96 +36842,111 @@
       <c r="U9" s="19"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
@@ -36954,27 +36954,27 @@
       <c r="Z13" s="19"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
       <c r="V14" s="19"/>
       <c r="W14" s="19"/>
       <c r="X14" s="19"/>
@@ -36982,27 +36982,27 @@
       <c r="Z14" s="19"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
       <c r="X15" s="19"/>
@@ -37010,27 +37010,27 @@
       <c r="Z15" s="19"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="19"/>
@@ -37038,27 +37038,27 @@
       <c r="Z16" s="19"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="X17" s="19"/>
@@ -37066,27 +37066,27 @@
       <c r="Z17" s="19"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="19"/>
@@ -37094,27 +37094,27 @@
       <c r="Z18" s="19"/>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
@@ -37122,27 +37122,27 @@
       <c r="Z19" s="19"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
@@ -37150,27 +37150,27 @@
       <c r="Z20" s="19"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
       <c r="V21" s="19"/>
       <c r="W21" s="19"/>
       <c r="X21" s="19"/>
@@ -37178,27 +37178,27 @@
       <c r="Z21" s="19"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
       <c r="V22" s="19"/>
       <c r="W22" s="19"/>
       <c r="X22" s="19"/>
@@ -37206,27 +37206,27 @@
       <c r="Z22" s="19"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
       <c r="V23" s="19"/>
       <c r="W23" s="19"/>
       <c r="X23" s="19"/>
@@ -37234,27 +37234,27 @@
       <c r="Z23" s="19"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
       <c r="V24" s="19"/>
       <c r="W24" s="19"/>
       <c r="X24" s="19"/>
@@ -37262,27 +37262,27 @@
       <c r="Z24" s="19"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
       <c r="V25" s="19"/>
       <c r="W25" s="19"/>
       <c r="X25" s="19"/>
@@ -37290,27 +37290,27 @@
       <c r="Z25" s="19"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
       <c r="X26" s="19"/>
@@ -37318,27 +37318,27 @@
       <c r="Z26" s="19"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
       <c r="V27" s="19"/>
       <c r="W27" s="19"/>
       <c r="X27" s="19"/>
@@ -37346,27 +37346,27 @@
       <c r="Z27" s="19"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
       <c r="V28" s="19"/>
       <c r="W28" s="19"/>
       <c r="X28" s="19"/>
@@ -37374,27 +37374,27 @@
       <c r="Z28" s="19"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
       <c r="V29" s="19"/>
       <c r="W29" s="19"/>
       <c r="X29" s="19"/>
@@ -37402,27 +37402,27 @@
       <c r="Z29" s="19"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
       <c r="X30" s="19"/>
@@ -37430,27 +37430,27 @@
       <c r="Z30" s="19"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="54"/>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54"/>
+      <c r="T31" s="54"/>
+      <c r="U31" s="54"/>
       <c r="V31" s="19"/>
       <c r="W31" s="19"/>
       <c r="X31" s="19"/>
@@ -37458,27 +37458,27 @@
       <c r="Z31" s="19"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
+      <c r="U32" s="54"/>
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
       <c r="X32" s="19"/>
@@ -37486,27 +37486,27 @@
       <c r="Z32" s="19"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
       <c r="V33" s="19"/>
       <c r="W33" s="19"/>
       <c r="X33" s="19"/>
@@ -37514,27 +37514,27 @@
       <c r="Z33" s="19"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
       <c r="X34" s="19"/>
@@ -37542,27 +37542,27 @@
       <c r="Z34" s="19"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
       <c r="V35" s="19"/>
       <c r="W35" s="19"/>
       <c r="X35" s="19"/>
@@ -37570,27 +37570,27 @@
       <c r="Z35" s="19"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
       <c r="V36" s="19"/>
       <c r="W36" s="19"/>
       <c r="X36" s="19"/>
@@ -37598,27 +37598,27 @@
       <c r="Z36" s="19"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
       <c r="V37" s="19"/>
       <c r="W37" s="19"/>
       <c r="X37" s="19"/>
@@ -37626,27 +37626,27 @@
       <c r="Z37" s="19"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
       <c r="V38" s="19"/>
       <c r="W38" s="19"/>
       <c r="X38" s="19"/>
@@ -37654,27 +37654,27 @@
       <c r="Z38" s="19"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
       <c r="X39" s="19"/>
@@ -37682,27 +37682,27 @@
       <c r="Z39" s="19"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
       <c r="V40" s="19"/>
       <c r="W40" s="19"/>
       <c r="X40" s="19"/>
@@ -37710,27 +37710,27 @@
       <c r="Z40" s="19"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
+      <c r="U41" s="54"/>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
       <c r="X41" s="19"/>
@@ -37738,27 +37738,27 @@
       <c r="Z41" s="19"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
       <c r="X42" s="19"/>
@@ -37766,27 +37766,27 @@
       <c r="Z42" s="19"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="54"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="54"/>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
       <c r="X43" s="19"/>
@@ -37794,27 +37794,27 @@
       <c r="Z43" s="19"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="54"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
       <c r="X44" s="19"/>
@@ -37822,27 +37822,27 @@
       <c r="Z44" s="19"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54"/>
+      <c r="T45" s="54"/>
+      <c r="U45" s="54"/>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
       <c r="X45" s="19"/>
@@ -37850,27 +37850,27 @@
       <c r="Z45" s="19"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
       <c r="X46" s="19"/>
@@ -37878,27 +37878,27 @@
       <c r="Z46" s="19"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
       <c r="X47" s="19"/>
@@ -37906,27 +37906,27 @@
       <c r="Z47" s="19"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="53"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="54"/>
+      <c r="T48" s="54"/>
+      <c r="U48" s="54"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
       <c r="X48" s="19"/>
@@ -37934,27 +37934,27 @@
       <c r="Z48" s="19"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
       <c r="V49" s="19"/>
       <c r="W49" s="19"/>
       <c r="X49" s="19"/>
@@ -37962,27 +37962,27 @@
       <c r="Z49" s="19"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="53"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="54"/>
+      <c r="T50" s="54"/>
+      <c r="U50" s="54"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
       <c r="X50" s="19"/>
@@ -37990,27 +37990,27 @@
       <c r="Z50" s="19"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="53"/>
-      <c r="T51" s="53"/>
-      <c r="U51" s="53"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="54"/>
+      <c r="T51" s="54"/>
+      <c r="U51" s="54"/>
       <c r="V51" s="19"/>
       <c r="W51" s="19"/>
       <c r="X51" s="19"/>
@@ -38018,27 +38018,27 @@
       <c r="Z51" s="19"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="53"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
-      <c r="U52" s="53"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="54"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54"/>
+      <c r="T52" s="54"/>
+      <c r="U52" s="54"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
       <c r="X52" s="19"/>
@@ -38046,27 +38046,27 @@
       <c r="Z52" s="19"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="53"/>
-      <c r="S53" s="53"/>
-      <c r="T53" s="53"/>
-      <c r="U53" s="53"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
       <c r="V53" s="19"/>
       <c r="W53" s="19"/>
       <c r="X53" s="19"/>
@@ -38074,27 +38074,27 @@
       <c r="Z53" s="19"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="53"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="53"/>
-      <c r="U54" s="53"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="54"/>
+      <c r="T54" s="54"/>
+      <c r="U54" s="54"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
       <c r="X54" s="19"/>
@@ -38102,27 +38102,27 @@
       <c r="Z54" s="19"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="53"/>
-      <c r="Q55" s="53"/>
-      <c r="R55" s="53"/>
-      <c r="S55" s="53"/>
-      <c r="T55" s="53"/>
-      <c r="U55" s="53"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="54"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="54"/>
       <c r="V55" s="19"/>
       <c r="W55" s="19"/>
       <c r="X55" s="19"/>
@@ -38130,27 +38130,27 @@
       <c r="Z55" s="19"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="53"/>
-      <c r="S56" s="53"/>
-      <c r="T56" s="53"/>
-      <c r="U56" s="53"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="54"/>
+      <c r="T56" s="54"/>
+      <c r="U56" s="54"/>
       <c r="V56" s="19"/>
       <c r="W56" s="19"/>
       <c r="X56" s="19"/>
@@ -38158,92 +38158,77 @@
       <c r="Z56" s="19"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="53"/>
-      <c r="S57" s="53"/>
-      <c r="T57" s="53"/>
-      <c r="U57" s="53"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="53"/>
-      <c r="Q58" s="53"/>
-      <c r="R58" s="53"/>
-      <c r="S58" s="53"/>
-      <c r="T58" s="53"/>
-      <c r="U58" s="53"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="19"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="53"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="53"/>
-      <c r="T59" s="53"/>
-      <c r="U59" s="53"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="19"/>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="19"/>
-      <c r="Z59" s="19"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="56"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
@@ -38264,9 +38249,9 @@
       <c r="U60" s="19"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="54"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="19"/>
@@ -38287,9 +38272,9 @@
       <c r="U61" s="19"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="54"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
@@ -38310,9 +38295,9 @@
       <c r="U62" s="19"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="54"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
@@ -38333,9 +38318,9 @@
       <c r="U63" s="19"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="54"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="55"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
@@ -38356,9 +38341,9 @@
       <c r="U64" s="19"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="54"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="56"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
@@ -38379,9 +38364,9 @@
       <c r="U65" s="19"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="54"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
+      <c r="A66" s="55"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="19"/>
@@ -38402,9 +38387,9 @@
       <c r="U66" s="19"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="54"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="55"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="19"/>
@@ -38425,9 +38410,9 @@
       <c r="U67" s="19"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="54"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
@@ -38448,9 +38433,9 @@
       <c r="U68" s="19"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="54"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
+      <c r="A69" s="57"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
@@ -38471,9 +38456,9 @@
       <c r="U69" s="19"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="54"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="55"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
@@ -38494,9 +38479,9 @@
       <c r="U70" s="19"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="58"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
@@ -38517,9 +38502,9 @@
       <c r="U71" s="19"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="56"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="58"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
@@ -38540,9 +38525,9 @@
       <c r="U72" s="19"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="56"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
@@ -38563,9 +38548,9 @@
       <c r="U73" s="19"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="56"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="58"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
@@ -38586,9 +38571,9 @@
       <c r="U74" s="19"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="56"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
@@ -38609,9 +38594,9 @@
       <c r="U75" s="19"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="56"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="60"/>
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
@@ -38632,9 +38617,9 @@
       <c r="U76" s="19"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="56"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="60"/>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
@@ -38655,9 +38640,9 @@
       <c r="U77" s="19"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="60"/>
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
@@ -38678,9 +38663,9 @@
       <c r="U78" s="19"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="58"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="59"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="60"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
@@ -38701,9 +38686,9 @@
       <c r="U79" s="19"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="58"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="59"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="60"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
@@ -38724,9 +38709,9 @@
       <c r="U80" s="19"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="58"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="59"/>
+      <c r="A81" s="59"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="60"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
@@ -38747,9 +38732,9 @@
       <c r="U81" s="19"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="58"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="59"/>
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
       <c r="F82" s="19"/>
@@ -38770,9 +38755,9 @@
       <c r="U82" s="19"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="58"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="59"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
       <c r="F83" s="19"/>
@@ -38793,9 +38778,9 @@
       <c r="U83" s="19"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="58"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="59"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
@@ -46036,75 +46021,6 @@
       <c r="S398" s="19"/>
       <c r="T398" s="19"/>
       <c r="U398" s="19"/>
-    </row>
-    <row r="399" ht="12.75" customHeight="1">
-      <c r="A399" s="19"/>
-      <c r="B399" s="19"/>
-      <c r="C399" s="19"/>
-      <c r="D399" s="19"/>
-      <c r="E399" s="19"/>
-      <c r="F399" s="19"/>
-      <c r="G399" s="19"/>
-      <c r="H399" s="19"/>
-      <c r="I399" s="19"/>
-      <c r="J399" s="19"/>
-      <c r="K399" s="19"/>
-      <c r="L399" s="19"/>
-      <c r="M399" s="19"/>
-      <c r="N399" s="19"/>
-      <c r="O399" s="19"/>
-      <c r="P399" s="19"/>
-      <c r="Q399" s="19"/>
-      <c r="R399" s="19"/>
-      <c r="S399" s="19"/>
-      <c r="T399" s="19"/>
-      <c r="U399" s="19"/>
-    </row>
-    <row r="400" ht="12.75" customHeight="1">
-      <c r="A400" s="19"/>
-      <c r="B400" s="19"/>
-      <c r="C400" s="19"/>
-      <c r="D400" s="19"/>
-      <c r="E400" s="19"/>
-      <c r="F400" s="19"/>
-      <c r="G400" s="19"/>
-      <c r="H400" s="19"/>
-      <c r="I400" s="19"/>
-      <c r="J400" s="19"/>
-      <c r="K400" s="19"/>
-      <c r="L400" s="19"/>
-      <c r="M400" s="19"/>
-      <c r="N400" s="19"/>
-      <c r="O400" s="19"/>
-      <c r="P400" s="19"/>
-      <c r="Q400" s="19"/>
-      <c r="R400" s="19"/>
-      <c r="S400" s="19"/>
-      <c r="T400" s="19"/>
-      <c r="U400" s="19"/>
-    </row>
-    <row r="401" ht="12.75" customHeight="1">
-      <c r="A401" s="19"/>
-      <c r="B401" s="19"/>
-      <c r="C401" s="19"/>
-      <c r="D401" s="19"/>
-      <c r="E401" s="19"/>
-      <c r="F401" s="19"/>
-      <c r="G401" s="19"/>
-      <c r="H401" s="19"/>
-      <c r="I401" s="19"/>
-      <c r="J401" s="19"/>
-      <c r="K401" s="19"/>
-      <c r="L401" s="19"/>
-      <c r="M401" s="19"/>
-      <c r="N401" s="19"/>
-      <c r="O401" s="19"/>
-      <c r="P401" s="19"/>
-      <c r="Q401" s="19"/>
-      <c r="R401" s="19"/>
-      <c r="S401" s="19"/>
-      <c r="T401" s="19"/>
-      <c r="U401" s="19"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -46134,87 +46050,87 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="B2" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="C2" s="65">
+        <f>NOW()</f>
+        <v>45137.97458</v>
+      </c>
+      <c r="D2" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E2" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="48"/>
+      <c r="G2" s="67" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="C2" s="64">
-        <f>NOW()</f>
-        <v>45126.03553</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>
     <row r="4" ht="12.75" customHeight="1"/>
@@ -47241,1444 +47157,1444 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>157</v>
+      <c r="A2" s="51" t="s">
+        <v>173</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>158</v>
+      <c r="C2" s="51" t="s">
+        <v>174</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="48" t="s">
-        <v>157</v>
+      <c r="A3" s="51" t="s">
+        <v>173</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>159</v>
+      <c r="B3" s="51" t="s">
+        <v>175</v>
       </c>
-      <c r="C3" s="48" t="s">
-        <v>160</v>
+      <c r="C3" s="51" t="s">
+        <v>176</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C6" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="48" t="s">
-        <v>179</v>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="51" t="s">
+        <v>177</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B7" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C7" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
-        <v>179</v>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="51" t="s">
+        <v>177</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B8" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C8" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="48" t="s">
-        <v>179</v>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="51" t="s">
+        <v>177</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B9" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C9" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="48" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="B11" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="48" t="s">
+      <c r="C11" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C12" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="48" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C20" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="48" t="s">
-        <v>190</v>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="51" t="s">
+        <v>201</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B21" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C21" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="48" t="s">
-        <v>190</v>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="51" t="s">
+        <v>201</v>
       </c>
-      <c r="B14" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="B15" s="48" t="s">
+      <c r="B22" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C22" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="B16" s="48" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="B23" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="48" t="s">
+      <c r="C23" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="B23" s="48" t="s">
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="B25" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="48" t="s">
+      <c r="C25" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C26" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="48" t="s">
-        <v>206</v>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="51" t="s">
+        <v>204</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B27" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C27" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="48" t="s">
-        <v>206</v>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="51" t="s">
+        <v>204</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B28" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C28" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="48" t="s">
-        <v>206</v>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="51" t="s">
+        <v>204</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B29" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C29" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="48" t="s">
+      <c r="B31" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="C31" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="48" t="s">
-        <v>158</v>
+      <c r="C32" s="51" t="s">
+        <v>176</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="B32" s="48" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="75" t="s">
         <v>217</v>
       </c>
-      <c r="C32" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="B34" s="74" t="str">
+      <c r="B34" s="75" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
-      <c r="C34" s="74" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="74" t="s">
+      <c r="C34" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="B35" s="74" t="str">
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="75" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
-      <c r="C35" s="74" t="s">
-        <v>220</v>
+      <c r="C35" s="75" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="74" t="s">
-        <v>218</v>
+      <c r="A36" s="75" t="s">
+        <v>217</v>
       </c>
-      <c r="B36" s="74" t="str">
+      <c r="B36" s="75" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
-      <c r="C36" s="74" t="s">
-        <v>221</v>
+      <c r="C36" s="75" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="74" t="s">
-        <v>218</v>
+      <c r="A37" s="75" t="s">
+        <v>217</v>
       </c>
-      <c r="B37" s="74" t="str">
+      <c r="B37" s="75" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
-      <c r="C37" s="74" t="s">
-        <v>222</v>
+      <c r="C37" s="75" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="74" t="s">
-        <v>218</v>
+      <c r="A38" s="75" t="s">
+        <v>217</v>
       </c>
-      <c r="B38" s="74" t="str">
+      <c r="B38" s="75" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
-      <c r="C38" s="74" t="s">
-        <v>223</v>
+      <c r="C38" s="75" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="74" t="s">
-        <v>218</v>
+      <c r="A39" s="75" t="s">
+        <v>217</v>
       </c>
-      <c r="B39" s="74" t="str">
+      <c r="B39" s="75" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
-      <c r="C39" s="74" t="s">
-        <v>224</v>
+      <c r="C39" s="75" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="74" t="s">
-        <v>218</v>
+      <c r="A40" s="75" t="s">
+        <v>217</v>
       </c>
-      <c r="B40" s="74" t="str">
+      <c r="B40" s="75" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
-      <c r="C40" s="74" t="s">
-        <v>225</v>
+      <c r="C40" s="75" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="74" t="s">
-        <v>218</v>
+      <c r="A41" s="75" t="s">
+        <v>217</v>
       </c>
-      <c r="B41" s="74" t="str">
+      <c r="B41" s="75" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
-      <c r="C41" s="74" t="s">
-        <v>226</v>
+      <c r="C41" s="75" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="74" t="s">
-        <v>218</v>
+      <c r="A42" s="75" t="s">
+        <v>217</v>
       </c>
-      <c r="B42" s="74" t="str">
+      <c r="B42" s="75" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
-      <c r="C42" s="74" t="s">
-        <v>227</v>
+      <c r="C42" s="75" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="74" t="s">
-        <v>218</v>
+      <c r="A43" s="75" t="s">
+        <v>217</v>
       </c>
-      <c r="B43" s="74" t="s">
-        <v>166</v>
+      <c r="B43" s="75" t="s">
+        <v>213</v>
       </c>
-      <c r="C43" s="74" t="s">
-        <v>167</v>
+      <c r="C43" s="75" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="74" t="str">
+      <c r="B44" s="75" t="str">
         <f t="shared" ref="B44:B47" si="2">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C44, "(", ""), ")", "")), " ", "_")</f>
         <v/>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="74" t="s">
-        <v>228</v>
+      <c r="A45" s="75" t="s">
+        <v>227</v>
       </c>
-      <c r="B45" s="74" t="str">
+      <c r="B45" s="75" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
-      <c r="C45" s="74" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="74" t="s">
+      <c r="C45" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="B46" s="74" t="str">
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" s="75" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
-      <c r="C46" s="74" t="s">
-        <v>230</v>
+      <c r="C46" s="75" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="74" t="str">
+      <c r="B47" s="75" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="C48" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="48"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="48"/>
+      <c r="W48" s="48"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="66" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="47"/>
-      <c r="T48" s="47"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="47"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="65" t="s">
-        <v>231</v>
-      </c>
-      <c r="B49" s="65" t="s">
+      <c r="C49" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="C49" s="65" t="s">
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="48"/>
+      <c r="W49" s="48"/>
+    </row>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-    </row>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="74" t="s">
+      <c r="B51" s="75" t="s">
         <v>236</v>
       </c>
-      <c r="B51" s="74" t="s">
+      <c r="C51" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="C51" s="74" t="s">
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="B52" s="75" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="B52" s="74" t="s">
+      <c r="C52" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="C52" s="74" t="s">
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" s="75" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="B53" s="74" t="s">
+      <c r="C53" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="C53" s="74" t="s">
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" s="75" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="B54" s="74" t="s">
+      <c r="C54" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="C54" s="74" t="s">
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" s="75" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="B55" s="74" t="s">
+      <c r="C55" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="C55" s="74" t="s">
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="B56" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="66" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="B56" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" s="74" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="65" t="s">
+      <c r="B58" s="66" t="s">
         <v>247</v>
       </c>
-      <c r="B58" s="65" t="s">
+      <c r="C58" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="C58" s="65" t="s">
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="66" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="B59" s="65" t="s">
+      <c r="C59" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="C59" s="65" t="s">
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="B60" s="66" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="B60" s="65" t="s">
+      <c r="C60" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="C60" s="65" t="s">
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="66" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="48" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="B61" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="C61" s="65" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="47" t="s">
+      <c r="B63" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="B63" s="47" t="s">
+      <c r="C63" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="C63" s="65" t="s">
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="B64" s="48" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="B64" s="47" t="s">
+      <c r="C64" s="66" t="s">
         <v>257</v>
       </c>
-      <c r="C64" s="65" t="s">
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="B65" s="48" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="B65" s="47" t="s">
+      <c r="C65" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="C65" s="65" t="s">
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="B66" s="48" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="B66" s="47" t="s">
+      <c r="C66" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="C66" s="65" t="s">
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="B67" s="48" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="47" t="s">
-        <v>254</v>
-      </c>
-      <c r="B67" s="47" t="s">
+      <c r="C67" s="66" t="s">
         <v>263</v>
       </c>
-      <c r="C67" s="65" t="s">
+    </row>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="75" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="74" t="s">
+      <c r="B69" s="75" t="s">
         <v>265</v>
       </c>
-      <c r="B69" s="74" t="s">
+      <c r="C69" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="C69" s="74" t="s">
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="B70" s="75" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="B70" s="74" t="s">
+      <c r="C70" s="75" t="s">
         <v>268</v>
       </c>
-      <c r="C70" s="74" t="s">
+    </row>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="75" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="74" t="s">
+      <c r="B72" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="B72" s="74" t="s">
+      <c r="C72" s="76" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="B73" s="75" t="s">
         <v>271</v>
       </c>
-      <c r="C72" s="75" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="74" t="s">
-        <v>270</v>
-      </c>
-      <c r="B73" s="74" t="s">
+      <c r="C73" s="75" t="s">
         <v>272</v>
       </c>
-      <c r="C73" s="74" t="s">
-        <v>273</v>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="75" t="s">
+        <v>269</v>
       </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="74" t="s">
-        <v>270</v>
+      <c r="B74" s="75" t="s">
+        <v>213</v>
       </c>
-      <c r="B74" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="C74" s="74" t="s">
-        <v>167</v>
+      <c r="C74" s="75" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>
